--- a/data.xlsx
+++ b/data.xlsx
@@ -4,85 +4,238 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Nguoi_dung" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="order" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
-  <si>
-    <t>Danh sách người dùng</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="75">
+  <si>
+    <t>Danh sách đơn hàng</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Tên người dùng</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Số điện thoại</t>
+    <t>Thông tin khách hàng</t>
   </si>
   <si>
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t>Ngày tạo tài khoản</t>
-  </si>
-  <si>
-    <t>"65976c7b6ce542e40202bee0"</t>
-  </si>
-  <si>
-    <t>Nguyễn Việt Long 1</t>
-  </si>
-  <si>
-    <t>longviet290@gmail.com</t>
-  </si>
-  <si>
-    <t>0979001086</t>
+    <t>Tổng giá trị đơn hàng</t>
+  </si>
+  <si>
+    <t>Số lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>Trạng thái đơn hàng</t>
+  </si>
+  <si>
+    <t>Phương thức thanh toán</t>
+  </si>
+  <si>
+    <t>Ngày tạo đơn</t>
+  </si>
+  <si>
+    <t>20240105_095035_379</t>
+  </si>
+  <si>
+    <t>Nguyen Viet Long - 012345</t>
+  </si>
+  <si>
+    <t>Ha Noi</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>momo</t>
+  </si>
+  <si>
+    <t>20240105_095142_204</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>20240105_162630_031</t>
+  </si>
+  <si>
+    <t>Nguyễn Việt Long - 012548745</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>cod</t>
+  </si>
+  <si>
+    <t>20240105_162848_543</t>
+  </si>
+  <si>
+    <t>20240105_162957_627</t>
+  </si>
+  <si>
+    <t>20240105_163138_566</t>
+  </si>
+  <si>
+    <t>20240105_163540_305</t>
+  </si>
+  <si>
+    <t>20240105_163556_484</t>
+  </si>
+  <si>
+    <t>20240105_183843_805</t>
+  </si>
+  <si>
+    <t>20240106_154700_361</t>
+  </si>
+  <si>
+    <t>Nguyen Viet Long - 0329123</t>
+  </si>
+  <si>
+    <t>20240112_191756_864</t>
+  </si>
+  <si>
+    <t>Nguyen Long - 0979001085</t>
+  </si>
+  <si>
+    <t>- Xã Nguyễn Trãi - Huyện Thường Tín - Thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>20240112_192145_174</t>
+  </si>
+  <si>
+    <t>148 Nguyen Trai - Phường Khương Đình - Quận Thanh Xuân - Thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>20240112_192415_396</t>
+  </si>
+  <si>
+    <t>- Phường Phúc Xá - Quận Ba Đình - Thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>20240112_192523_629</t>
+  </si>
+  <si>
+    <t>abc - Xã Bạch Xa - Huyện Hàm Yên - Tỉnh Tuyên Quang</t>
+  </si>
+  <si>
+    <t>20240112_192741_808</t>
+  </si>
+  <si>
+    <t>20240112_192823_562</t>
+  </si>
+  <si>
+    <t>So 85 - Phường Hiệp Sơn - Thị xã Kinh Môn - Tỉnh Hải Dương</t>
+  </si>
+  <si>
+    <t>20240112_195945_399</t>
+  </si>
+  <si>
+    <t>- Phường Khương Đình - Quận Thanh Xuân - Thành phố Hải Phòng</t>
+  </si>
+  <si>
+    <t>20240112_210757_268</t>
+  </si>
+  <si>
+    <t>20240112_210847_096</t>
+  </si>
+  <si>
+    <t>20240117_202158_784</t>
+  </si>
+  <si>
+    <t>Nguyễn Việt Long - 0979001085</t>
+  </si>
+  <si>
+    <t>So 85 - Phường Phúc Xá - Quận Ba Đình - Thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>20240122_155616_527</t>
+  </si>
+  <si>
+    <t>Nguyễn Việt Long - 0979001086</t>
   </si>
   <si>
     <t>12312312 - Phường Phúc Xá - Quận Ba Đình - Thành phố Hà Nội</t>
   </si>
   <si>
-    <t>"65990e7d7d3d12b0f74be6cd"</t>
-  </si>
-  <si>
-    <t>Duc Bui</t>
-  </si>
-  <si>
-    <t>shroudduc@gmail.com</t>
-  </si>
-  <si>
-    <t>0979001088</t>
-  </si>
-  <si>
-    <t>undefined - undefined - undefined - undefined</t>
-  </si>
-  <si>
-    <t>"65b211550d10c780c2a9abc3"</t>
-  </si>
-  <si>
-    <t>Nguyễn Việt Long</t>
-  </si>
-  <si>
-    <t>longviet2901@gmail.com</t>
-  </si>
-  <si>
-    <t>1231231231</t>
-  </si>
-  <si>
-    <t>"65b211690d10c780c2a9abd1"</t>
-  </si>
-  <si>
-    <t>Long Viet</t>
-  </si>
-  <si>
-    <t>longvie123t290@gmail.com</t>
+    <t>20240122_160038_497</t>
+  </si>
+  <si>
+    <t>148 Nguyen Trai - Phường Phúc Xá - Quận Ba Đình - Thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>20240122_160348_054</t>
+  </si>
+  <si>
+    <t>20240122_160855_099</t>
+  </si>
+  <si>
+    <t>123 - Phường Phúc Xá - Quận Ba Đình - Thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>20240122_160923_232</t>
+  </si>
+  <si>
+    <t>20240122_161046_284</t>
+  </si>
+  <si>
+    <t>20240122_161645_945</t>
+  </si>
+  <si>
+    <t>20240122_161802_915</t>
+  </si>
+  <si>
+    <t>20240122_162014_966</t>
+  </si>
+  <si>
+    <t>20240122_162051_541</t>
+  </si>
+  <si>
+    <t>20240122_162246_502</t>
+  </si>
+  <si>
+    <t>20240122_182539_686</t>
+  </si>
+  <si>
+    <t>20240122_183450_488</t>
+  </si>
+  <si>
+    <t>20240122_183745_298</t>
+  </si>
+  <si>
+    <t>20240122_183915_695</t>
+  </si>
+  <si>
+    <t>20240122_184505_037</t>
+  </si>
+  <si>
+    <t>20240122_184557_940</t>
+  </si>
+  <si>
+    <t>20240122_184756_808</t>
+  </si>
+  <si>
+    <t>20240122_184852_791</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>20240122_212123_015</t>
+  </si>
+  <si>
+    <t>20240124_104022_608</t>
+  </si>
+  <si>
+    <t>20240124_184936_730</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -471,19 +624,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H45"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,8 +645,10 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -512,90 +667,1108 @@
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3">
+        <v>45296.11846503472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3">
-        <v>45296.11230324074</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5">
+        <v>160</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45296.11923847222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>172</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3">
+        <v>45296.39340313658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3">
+        <v>45296.39500628472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3">
+        <v>45296.39580586806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="3">
+        <v>45296.396974143514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="3">
+        <v>45296.399772060184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="3">
+        <v>45296.399959305556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="3">
+        <v>45296.485229224534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>62</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="3">
+        <v>45297.36597640046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>90</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="3">
+        <v>45303.51246370371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="3">
+        <v>45303.51510618055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="3">
+        <v>45303.51684486111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="3">
+        <v>45303.51763459491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="3">
+        <v>45303.51923388889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="3">
+        <v>45303.519717152776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20">
+        <v>90</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="3">
+        <v>45303.54149767361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="3">
+        <v>45303.58885726852</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="3">
+        <v>45303.589433981484</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23">
+        <v>460</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="3">
+        <v>45308.55693037037</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24">
+        <v>46</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="3">
+        <v>45313.37241350695</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="3">
+        <v>45313.37544556713</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>60</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="3">
+        <v>45313.377639513885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="3">
+        <v>45313.38119327546</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="3">
+        <v>45313.381518888884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="3">
+        <v>45313.382480138884</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="3">
+        <v>45313.386642881946</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="3">
+        <v>45313.38753373842</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32">
+        <v>24</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="3">
+        <v>45313.38906210648</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="3">
+        <v>45313.38948542824</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="3">
+        <v>45313.39081599537</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="3">
+        <v>45313.47615377315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36">
+        <v>155</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="3">
+        <v>45313.482528796296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37">
+        <v>123</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="3">
+        <v>45313.48455206018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38">
+        <v>24</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="3">
+        <v>45313.48559832176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="3">
+        <v>45313.489641631946</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="3">
+        <v>45313.49025393519</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="3">
+        <v>45313.49162972222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="3">
+        <v>45313.492277673606</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43">
+        <v>75</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3">
-        <v>45297.211736111116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3">
-        <v>45316.31175925926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="3">
-        <v>45316.31175925926</v>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="3">
+        <v>45313.598183043985</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44">
+        <v>305</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="3">
+        <v>45315.15303944444</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45">
+        <v>455</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="3">
+        <v>45315.49278622685</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
